--- a/biology/Virologie/Crinivirus/Crinivirus.xlsx
+++ b/biology/Virologie/Crinivirus/Crinivirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crinivirus[2] est un genre de virus qui infectent les plantes (phytovirus). Ce genre, rattaché à la famille des Closteroviridae, comprend 14 espèces officiellement décrites, dont le LIYV (Lettuce infectious yellows virus), le virus de la jaunisse infectieuse de la laitue, qui est l'espèce-type, et deux espèces proposées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crinivirus est un genre de virus qui infectent les plantes (phytovirus). Ce genre, rattaché à la famille des Closteroviridae, comprend 14 espèces officiellement décrites, dont le LIYV (Lettuce infectious yellows virus), le virus de la jaunisse infectieuse de la laitue, qui est l'espèce-type, et deux espèces proposées.
 Ce sont des virus à ARN simple brin à polarité positive (ssRNA). Les virions, non enveloppés, sont constitués d'une capside filamenteuse, très flexueuse, à symétrie hélicoïdale d'une longueur de 1200 à 2000 nm et d'une largeur de 10 à 13 nm.
 Le génome, bipartite, compte entre 7500 et 19500 nucléotides.
-Ces virus sont le plus souvent transmis par des insectes vecteurs de l'ordre des Hémiptères et de la famille des Aleyrodidae (aleurodes), sur un mode semi-persistant. Il s'agit en particulier de l'aleurode du tabac (Bemisia tabaci) et de l'aleurode des serres (Trialeurodes vaporariorum)[3].
+Ces virus sont le plus souvent transmis par des insectes vecteurs de l'ordre des Hémiptères et de la famille des Aleyrodidae (aleurodes), sur un mode semi-persistant. Il s'agit en particulier de l'aleurode du tabac (Bemisia tabaci) et de l'aleurode des serres (Trialeurodes vaporariorum).
 La gamme des plantes-hôtes, relativement restreinte, est estimée à environ 150 espèces de plantes dicotylédones, parmi lesquelles de nombreuses plantes cultivées, notamment des graminées (Poaceae), et diverses plantes maraîchères (betteraves, laitues, patates douces, tomates, diverses cucurbitacées...).
-Les symptômes consistent généralement en un jaunissement du limbe foliaire internervaire, surtout dans les parties basses de la plante, associé selon les espèces-hôtes à des pertes de vigueur végétative et des baisses de rendement. Ces symptômes peuvent parfois être confondus avec ceux résultant de carences minérales ou de l'effet de certains pesticides[3].
+Les symptômes consistent généralement en un jaunissement du limbe foliaire internervaire, surtout dans les parties basses de la plante, associé selon les espèces-hôtes à des pertes de vigueur végétative et des baisses de rendement. Ces symptômes peuvent parfois être confondus avec ceux résultant de carences minérales ou de l'effet de certains pesticides.
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (20 janvier 2021)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 janvier 2021) :
 Abutilon yellows virus
 Bean yellow disorder virus
 Beet pseudoyellows virus beet pseudo yellows virus
